--- a/Test/MC_Ssf/T1/Sensors_data_1000011.xlsx
+++ b/Test/MC_Ssf/T1/Sensors_data_1000011.xlsx
@@ -475,13 +475,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.9223401648952121</v>
+        <v>0.9478427066728744</v>
       </c>
       <c r="D2" t="n">
-        <v>0.002198716952831266</v>
+        <v>0.001476685147443403</v>
       </c>
       <c r="E2" t="n">
-        <v>0.389538391560486</v>
+        <v>-0.03739140896372373</v>
       </c>
       <c r="F2" t="n">
         <v>3</v>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9308539964009147</v>
+        <v>0.963490816545797</v>
       </c>
       <c r="D3" t="n">
-        <v>0.003798126504622268</v>
+        <v>0.002005415933269634</v>
       </c>
       <c r="E3" t="n">
-        <v>0.003871578193732591</v>
+        <v>-0.01944004377680701</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
@@ -525,13 +525,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.9823102790025984</v>
+        <v>0.9875214931787334</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0007864869766059666</v>
+        <v>0.0005547958107341827</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.000957611493831223</v>
+        <v>-0.004476054676359809</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
@@ -550,13 +550,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.7640702392374492</v>
+        <v>0.7298355478850775</v>
       </c>
       <c r="D5" t="n">
-        <v>0.009251093919430338</v>
+        <v>0.01059347795771302</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2315192605427946</v>
+        <v>0.2401781608906577</v>
       </c>
       <c r="F5" t="n">
         <v>3</v>
